--- a/docs/CareConnect-Flag-1.xlsx
+++ b/docs/CareConnect-Flag-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="275">
   <si>
     <t>Path</t>
   </si>
@@ -672,6 +672,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Flag.code.coding.system</t>
@@ -4026,10 +4032,10 @@
         <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4095,7 +4101,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4103,7 +4109,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4129,23 +4135,23 @@
         <v>61</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -4187,7 +4193,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4202,7 +4208,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4210,7 +4216,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4236,13 +4242,13 @@
         <v>110</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4292,7 +4298,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4307,7 +4313,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4315,7 +4321,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4341,14 +4347,14 @@
         <v>67</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4397,7 +4403,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4412,7 +4418,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4420,7 +4426,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4446,14 +4452,14 @@
         <v>110</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4502,7 +4508,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4517,7 +4523,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -4525,7 +4531,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4548,19 +4554,19 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4609,7 +4615,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4624,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -4632,7 +4638,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4658,16 +4664,16 @@
         <v>110</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4722,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4731,7 +4737,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -4739,7 +4745,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4762,13 +4768,13 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4819,7 +4825,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -4834,15 +4840,15 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4868,10 +4874,10 @@
         <v>155</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4922,7 +4928,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4940,12 +4946,12 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4968,16 +4974,16 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5027,7 +5033,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5045,12 +5051,12 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5073,13 +5079,13 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5130,7 +5136,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5145,10 +5151,10 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/docs/CareConnect-Flag-1.xlsx
+++ b/docs/CareConnect-Flag-1.xlsx
@@ -1025,17 +1025,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.09375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.08984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="55.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1046,19 +1046,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="113.23046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Flag-1.xlsx
+++ b/docs/CareConnect-Flag-1.xlsx
@@ -1025,17 +1025,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.08984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="55.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="55.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1046,19 +1046,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="113.23046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
